--- a/A8/foto escolhida/28-09-2023_12-10-36/tratamento.xlsx
+++ b/A8/foto escolhida/28-09-2023_12-10-36/tratamento.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5EC35E-1648-4C70-A19C-A19CECA8F8D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB399F-8DED-4BBA-AB12-6193D25AA68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,9 +11,6 @@
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
     <sheet name="filtro" sheetId="3" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Plan1!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Plan1!$B$2:$B$105</definedName>
@@ -131,8 +128,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -194,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -215,6 +213,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8020,850 +8019,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Plan1"/>
-      <sheetName val="filtro"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2">
-            <v>1</v>
-          </cell>
-          <cell r="B2">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2</v>
-          </cell>
-          <cell r="B3">
-            <v>147</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>3</v>
-          </cell>
-          <cell r="B4">
-            <v>14407</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>4</v>
-          </cell>
-          <cell r="B5">
-            <v>13201</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>5</v>
-          </cell>
-          <cell r="B6">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>6</v>
-          </cell>
-          <cell r="B7">
-            <v>21221</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>7</v>
-          </cell>
-          <cell r="B8">
-            <v>38</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>8</v>
-          </cell>
-          <cell r="B9">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>9</v>
-          </cell>
-          <cell r="B10">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>10</v>
-          </cell>
-          <cell r="B11">
-            <v>18402</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>11</v>
-          </cell>
-          <cell r="B12">
-            <v>15170</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>12</v>
-          </cell>
-          <cell r="B13">
-            <v>16374</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>13</v>
-          </cell>
-          <cell r="B14">
-            <v>219</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>14</v>
-          </cell>
-          <cell r="B15">
-            <v>26326</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>15</v>
-          </cell>
-          <cell r="B16">
-            <v>18525</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>16</v>
-          </cell>
-          <cell r="B17">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>17</v>
-          </cell>
-          <cell r="B18">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>18</v>
-          </cell>
-          <cell r="B19">
-            <v>9</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>19</v>
-          </cell>
-          <cell r="B20">
-            <v>20097</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>20</v>
-          </cell>
-          <cell r="B21">
-            <v>4</v>
-          </cell>
-          <cell r="P21">
-            <v>2652.75</v>
-          </cell>
-          <cell r="S21">
-            <v>5520.2695636069375</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>21</v>
-          </cell>
-          <cell r="B22">
-            <v>18892</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>22</v>
-          </cell>
-          <cell r="B23">
-            <v>14544</v>
-          </cell>
-          <cell r="P23">
-            <v>0</v>
-          </cell>
-          <cell r="Q23">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>23</v>
-          </cell>
-          <cell r="B24">
-            <v>10886</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>24</v>
-          </cell>
-          <cell r="B25">
-            <v>18863</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>25</v>
-          </cell>
-          <cell r="B26">
-            <v>14803</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>26</v>
-          </cell>
-          <cell r="B27">
-            <v>75</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>27</v>
-          </cell>
-          <cell r="B28">
-            <v>19809</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>28</v>
-          </cell>
-          <cell r="B29">
-            <v>26135</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>29</v>
-          </cell>
-          <cell r="B30">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31">
-            <v>30</v>
-          </cell>
-          <cell r="B31">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32">
-            <v>31</v>
-          </cell>
-          <cell r="B32">
-            <v>12381</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33">
-            <v>32</v>
-          </cell>
-          <cell r="B33">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34">
-            <v>33</v>
-          </cell>
-          <cell r="B34">
-            <v>15162</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35">
-            <v>34</v>
-          </cell>
-          <cell r="B35">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36">
-            <v>35</v>
-          </cell>
-          <cell r="B36">
-            <v>17580</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37">
-            <v>36</v>
-          </cell>
-          <cell r="B37">
-            <v>14350</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38">
-            <v>37</v>
-          </cell>
-          <cell r="B38">
-            <v>16919</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39">
-            <v>38</v>
-          </cell>
-          <cell r="B39">
-            <v>21096</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40">
-            <v>39</v>
-          </cell>
-          <cell r="B40">
-            <v>13597</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41">
-            <v>40</v>
-          </cell>
-          <cell r="B41">
-            <v>16677</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="A42">
-            <v>41</v>
-          </cell>
-          <cell r="B42">
-            <v>4</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="A43">
-            <v>42</v>
-          </cell>
-          <cell r="B43">
-            <v>12840</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="A44">
-            <v>43</v>
-          </cell>
-          <cell r="B44">
-            <v>13861</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="A45">
-            <v>44</v>
-          </cell>
-          <cell r="B45">
-            <v>18005</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="A46">
-            <v>45</v>
-          </cell>
-          <cell r="B46">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="A47">
-            <v>46</v>
-          </cell>
-          <cell r="B47">
-            <v>14286</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="A48">
-            <v>47</v>
-          </cell>
-          <cell r="B48">
-            <v>16050</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="A49">
-            <v>48</v>
-          </cell>
-          <cell r="B49">
-            <v>12465</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50">
-            <v>49</v>
-          </cell>
-          <cell r="B50">
-            <v>19973</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51">
-            <v>50</v>
-          </cell>
-          <cell r="B51">
-            <v>82</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52">
-            <v>51</v>
-          </cell>
-          <cell r="B52">
-            <v>14062</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53">
-            <v>52</v>
-          </cell>
-          <cell r="B53">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54">
-            <v>53</v>
-          </cell>
-          <cell r="B54">
-            <v>17284</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55">
-            <v>54</v>
-          </cell>
-          <cell r="B55">
-            <v>16662</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56">
-            <v>55</v>
-          </cell>
-          <cell r="B56">
-            <v>21653</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57">
-            <v>56</v>
-          </cell>
-          <cell r="B57">
-            <v>16471</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58">
-            <v>57</v>
-          </cell>
-          <cell r="B58">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59">
-            <v>58</v>
-          </cell>
-          <cell r="B59">
-            <v>17795</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60">
-            <v>59</v>
-          </cell>
-          <cell r="B60">
-            <v>13783</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61">
-            <v>60</v>
-          </cell>
-          <cell r="B61">
-            <v>20394</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62">
-            <v>61</v>
-          </cell>
-          <cell r="B62">
-            <v>19639</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63">
-            <v>62</v>
-          </cell>
-          <cell r="B63">
-            <v>8947</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64">
-            <v>63</v>
-          </cell>
-          <cell r="B64">
-            <v>10801</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65">
-            <v>64</v>
-          </cell>
-          <cell r="B65">
-            <v>19660</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66">
-            <v>65</v>
-          </cell>
-          <cell r="B66">
-            <v>14089</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67">
-            <v>66</v>
-          </cell>
-          <cell r="B67">
-            <v>14770</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68">
-            <v>67</v>
-          </cell>
-          <cell r="B68">
-            <v>14583</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69">
-            <v>68</v>
-          </cell>
-          <cell r="B69">
-            <v>21468</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70">
-            <v>69</v>
-          </cell>
-          <cell r="B70">
-            <v>25000</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71">
-            <v>70</v>
-          </cell>
-          <cell r="B71">
-            <v>11127</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72">
-            <v>71</v>
-          </cell>
-          <cell r="B72">
-            <v>9216</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73">
-            <v>72</v>
-          </cell>
-          <cell r="B73">
-            <v>11590</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74">
-            <v>73</v>
-          </cell>
-          <cell r="B74">
-            <v>20639</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75">
-            <v>74</v>
-          </cell>
-          <cell r="B75">
-            <v>22153</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76">
-            <v>75</v>
-          </cell>
-          <cell r="B76">
-            <v>17069</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77">
-            <v>76</v>
-          </cell>
-          <cell r="B77">
-            <v>15480</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78">
-            <v>77</v>
-          </cell>
-          <cell r="B78">
-            <v>25195</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79">
-            <v>78</v>
-          </cell>
-          <cell r="B79">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80">
-            <v>79</v>
-          </cell>
-          <cell r="B80">
-            <v>10235</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81">
-            <v>80</v>
-          </cell>
-          <cell r="B81">
-            <v>12810</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82">
-            <v>81</v>
-          </cell>
-          <cell r="B82">
-            <v>13238</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83">
-            <v>82</v>
-          </cell>
-          <cell r="B83">
-            <v>23229</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84">
-            <v>83</v>
-          </cell>
-          <cell r="B84">
-            <v>14855</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85">
-            <v>84</v>
-          </cell>
-          <cell r="B85">
-            <v>18010</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86">
-            <v>85</v>
-          </cell>
-          <cell r="B86">
-            <v>15981</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87">
-            <v>86</v>
-          </cell>
-          <cell r="B87">
-            <v>17242</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="A88">
-            <v>87</v>
-          </cell>
-          <cell r="B88">
-            <v>17092</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="A89">
-            <v>88</v>
-          </cell>
-          <cell r="B89">
-            <v>14140</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="A90">
-            <v>89</v>
-          </cell>
-          <cell r="B90">
-            <v>19433</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="A91">
-            <v>90</v>
-          </cell>
-          <cell r="B91">
-            <v>18009</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="A92">
-            <v>91</v>
-          </cell>
-          <cell r="B92">
-            <v>13827</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="A93">
-            <v>92</v>
-          </cell>
-          <cell r="B93">
-            <v>20143</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="A94">
-            <v>93</v>
-          </cell>
-          <cell r="B94">
-            <v>15514</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="A95">
-            <v>94</v>
-          </cell>
-          <cell r="B95">
-            <v>26912</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="A96">
-            <v>95</v>
-          </cell>
-          <cell r="B96">
-            <v>19677</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="A97">
-            <v>96</v>
-          </cell>
-          <cell r="B97">
-            <v>20926</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98">
-            <v>97</v>
-          </cell>
-          <cell r="B98">
-            <v>13730</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99">
-            <v>98</v>
-          </cell>
-          <cell r="B99">
-            <v>19025</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100">
-            <v>99</v>
-          </cell>
-          <cell r="B100">
-            <v>18464</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101">
-            <v>100</v>
-          </cell>
-          <cell r="B101">
-            <v>21318</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102">
-            <v>101</v>
-          </cell>
-          <cell r="B102">
-            <v>22963</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103">
-            <v>102</v>
-          </cell>
-          <cell r="B103">
-            <v>19455</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9130,7 +8285,7 @@
   <dimension ref="A1:U93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10869,7 +10024,7 @@
   <dimension ref="A1:G200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10918,7 +10073,7 @@
         <f>IF(Plan1!$B2&lt;Plan1!$P$21,"",Plan1!E2)</f>
         <v>92.789059262329005</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="10">
         <f>AVERAGE(E2:E91)</f>
         <v>84.98253812264791</v>
       </c>
@@ -10947,7 +10102,7 @@
         <f>IF(Plan1!$B3&lt;Plan1!$P$21,"",Plan1!E3)</f>
         <v>93.029113267649393</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="10">
         <f>_xlfn.STDEV.S(E2:E91)</f>
         <v>7.4552207602409641</v>
       </c>
